--- a/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Groen/resultater.xlsx
+++ b/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Groen/resultater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="11620" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
-  <si>
-    <t>PO1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+  <si>
+    <t>Mean værdier</t>
   </si>
   <si>
     <t>PO2</t>
@@ -30,9 +30,6 @@
     <t>PO3</t>
   </si>
   <si>
-    <t xml:space="preserve">MEAN: </t>
-  </si>
-  <si>
     <t>PN1</t>
   </si>
   <si>
@@ -42,7 +39,7 @@
     <t>PN3</t>
   </si>
   <si>
-    <t>MEAN</t>
+    <t>LODRET</t>
   </si>
   <si>
     <t>LO1</t>
@@ -57,12 +54,30 @@
     <t>LN1</t>
   </si>
   <si>
+    <t>PO1 x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
     <t>LN2</t>
   </si>
   <si>
     <t>LN3</t>
   </si>
   <si>
+    <t>VANDRET</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
     <t>VH1</t>
   </si>
   <si>
@@ -72,9 +87,6 @@
     <t>VH3</t>
   </si>
   <si>
-    <t xml:space="preserve">MEAN </t>
-  </si>
-  <si>
     <t>VV1</t>
   </si>
   <si>
@@ -84,72 +96,56 @@
     <t>VV3</t>
   </si>
   <si>
-    <t>Afvigelse datablad</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>OFFSET</t>
-  </si>
-  <si>
-    <t>EnGradPO =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0218</t>
-  </si>
-  <si>
-    <t>EnGradPN =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0995</t>
-  </si>
-  <si>
-    <t>EnGradLO =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0209</t>
-  </si>
-  <si>
-    <t>EnGradLN =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0964</t>
-  </si>
-  <si>
-    <t>EnGradVH =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0258</t>
-  </si>
-  <si>
-    <t>EnGradVV =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.1017</t>
-  </si>
-  <si>
-    <t>POGrader =</t>
-  </si>
-  <si>
-    <t>PNGrader =</t>
-  </si>
-  <si>
-    <t>EN GRAD</t>
+    <t>Procent</t>
+  </si>
+  <si>
+    <t>Afvigelse fra 1,7</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>En grad</t>
+  </si>
+  <si>
+    <t>90 grader</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="184" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,16 +168,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,399 +525,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="N35" sqref="M8:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="33">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>1.7334000000000001</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1.6307</v>
+      </c>
+      <c r="E3">
+        <v>-4.0800000000000003E-2</v>
+      </c>
+      <c r="F3">
+        <f>E3*100</f>
+        <v>-4.08</v>
+      </c>
+      <c r="H3">
+        <v>1.6715</v>
+      </c>
+      <c r="J3" s="4">
+        <f>4.528*10^-4</f>
+        <v>4.528E-4</v>
+      </c>
+      <c r="K3">
+        <v>-4.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.7334000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="C4">
+        <v>1.6141000000000001</v>
+      </c>
+      <c r="E4">
+        <v>-5.0599999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <f>E4*100</f>
+        <v>-5.0599999999999996</v>
+      </c>
+      <c r="H4">
+        <v>1.6646000000000001</v>
+      </c>
+      <c r="J4">
+        <f>-5.617*10^-4</f>
+        <v>-5.6170000000000005E-4</v>
+      </c>
+      <c r="K4">
+        <v>-5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1.7333000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>1.9556</v>
+      </c>
+      <c r="E5">
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="F5">
+        <f>E5*100</f>
+        <v>15.03</v>
+      </c>
+      <c r="H5">
+        <v>1.8051999999999999</v>
+      </c>
+      <c r="J5">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="K5">
+        <v>0.15029999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1.7334000000000001</v>
-      </c>
-      <c r="D4">
-        <v>1.9663299999999999</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-0.23</v>
-      </c>
-      <c r="H4">
-        <v>2.18E-2</v>
-      </c>
-      <c r="I4">
-        <f>H4*90</f>
-        <v>1.962</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="C7">
+        <v>1.6436999999999999</v>
+      </c>
+      <c r="E7">
+        <v>-3.3099999999999997E-2</v>
+      </c>
+      <c r="F7">
+        <f>E7*100</f>
+        <v>-3.3099999999999996</v>
+      </c>
+      <c r="H7">
+        <v>1.6768000000000001</v>
+      </c>
+      <c r="J7">
+        <f>-3.6812*10^-4</f>
+        <v>-3.6812000000000005E-4</v>
+      </c>
+      <c r="K7">
+        <v>-3.3099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>1.548</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="C8">
+        <v>1.6116999999999999</v>
+      </c>
+      <c r="E8">
+        <v>-5.1900000000000002E-2</v>
+      </c>
+      <c r="F8">
+        <f>E8*100</f>
+        <v>-5.19</v>
+      </c>
+      <c r="H8">
+        <v>1.6637</v>
+      </c>
+      <c r="J8">
+        <f>-5.7695*10^-4</f>
+        <v>-5.7695000000000001E-4</v>
+      </c>
+      <c r="K8">
+        <v>-5.1900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.5477000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="C9">
+        <v>1.3876999999999999</v>
+      </c>
+      <c r="E9">
+        <v>-0.1837</v>
+      </c>
+      <c r="F9">
+        <f>E9*100</f>
+        <v>-18.37</v>
+      </c>
+      <c r="H9">
+        <v>1.5713999999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-2E-3</v>
+      </c>
+      <c r="K9">
+        <v>-0.1837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.5478000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.5478000000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-8.9510000000000005</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>10.498900000000001</v>
-      </c>
-      <c r="H9">
-        <v>-9.9500000000000005E-2</v>
-      </c>
-      <c r="I9">
-        <f>H9*90</f>
-        <v>-8.9550000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="C13">
+        <v>1.9201999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.1295</v>
+      </c>
+      <c r="F13">
+        <f>E13*100</f>
+        <v>12.950000000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.7907</v>
+      </c>
+      <c r="J13">
+        <v>1.4E-3</v>
+      </c>
+      <c r="K13">
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1.7321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="C14">
+        <v>1.6091</v>
+      </c>
+      <c r="E14">
+        <v>-5.3499999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <f>E14*100</f>
+        <v>-5.35</v>
+      </c>
+      <c r="H14">
+        <v>1.6626000000000001</v>
+      </c>
+      <c r="J14">
+        <f>-5.9405*10^-4</f>
+        <v>-5.9405000000000005E-4</v>
+      </c>
+      <c r="K14">
+        <v>-5.3499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>1.7319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.732</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.732</v>
-      </c>
-      <c r="D14">
-        <v>1.8835</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>-0.15140000000000001</v>
-      </c>
-      <c r="H14">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="I14">
-        <f>H14*90</f>
-        <v>1.8809999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>1.5526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="C15" s="3">
+        <v>1.6661999999999999</v>
+      </c>
+      <c r="E15">
+        <v>-1.9900000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <f>E15*100</f>
+        <v>-1.9900000000000002</v>
+      </c>
+      <c r="H15">
+        <v>1.6860999999999999</v>
+      </c>
+      <c r="J15">
+        <f>-2.2104*10^-4</f>
+        <v>-2.2104000000000001E-4</v>
+      </c>
+      <c r="K15">
+        <v>-1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
-        <v>1.5526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1.3615999999999999</v>
+      </c>
+      <c r="E17">
+        <v>-0.1991</v>
+      </c>
+      <c r="F17">
+        <f>E17*100</f>
+        <v>-19.91</v>
+      </c>
+      <c r="H17">
+        <v>1.5606</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-0.1991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
-        <v>1.5525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>1.6222000000000001</v>
+      </c>
+      <c r="E18">
+        <v>-4.58E-2</v>
+      </c>
+      <c r="F18">
+        <f>E18*100</f>
+        <v>-4.58</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="J18">
+        <f>-5.0837*10^-4</f>
+        <v>-5.0837000000000007E-4</v>
+      </c>
+      <c r="K18">
+        <v>-4.58E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>1.5526</v>
-      </c>
-      <c r="D19">
-        <v>-8.6724999999999994</v>
-      </c>
-      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>1.6746000000000001</v>
+      </c>
+      <c r="E19">
+        <v>-1.49E-2</v>
+      </c>
+      <c r="F19">
+        <f>E19*100</f>
+        <v>-1.49</v>
+      </c>
+      <c r="H19">
+        <v>1.6896</v>
+      </c>
+      <c r="J19" s="5">
+        <f>-1.6578*10^-4</f>
+        <v>-1.6578E-4</v>
+      </c>
+      <c r="K19" s="3">
+        <f>J19*90</f>
+        <v>-1.49202E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="33">
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>1.6492</v>
+      </c>
+      <c r="E23">
+        <v>-4.2099999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <f>E23*100</f>
+        <v>-4.21</v>
+      </c>
+      <c r="H23">
+        <v>1.6705000000000001</v>
+      </c>
+      <c r="J23">
+        <f>-4.6756*10^-4</f>
+        <v>-4.6756000000000006E-4</v>
+      </c>
+      <c r="K23">
+        <v>-4.2099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>1.897</v>
+      </c>
+      <c r="E24">
+        <v>-0.21360000000000001</v>
+      </c>
+      <c r="F24">
+        <f>E24*100</f>
+        <v>-21.36</v>
+      </c>
+      <c r="H24">
+        <v>1.5504</v>
+      </c>
+      <c r="J24">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="K24">
+        <v>-0.21360000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>1.6728000000000001</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="F25">
+        <f>E25*100</f>
+        <v>-1.9</v>
+      </c>
+      <c r="H25">
+        <v>1.6867000000000001</v>
+      </c>
+      <c r="J25">
+        <f>-2.1056*10^-4</f>
+        <v>-2.1055999999999999E-4</v>
+      </c>
+      <c r="K25" s="3">
+        <v>-1.9E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="F19">
-        <v>-0.33090000000000003</v>
-      </c>
-      <c r="H19">
-        <v>-9.64E-2</v>
-      </c>
-      <c r="I19">
-        <f>H19*90</f>
-        <v>-8.6760000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="C27">
+        <v>1.6285000000000001</v>
+      </c>
+      <c r="E27">
+        <v>-2.9899999999999999E-2</v>
+      </c>
+      <c r="F27">
+        <f>E27*100</f>
+        <v>-2.9899999999999998</v>
+      </c>
+      <c r="H27">
+        <v>1.6791</v>
+      </c>
+      <c r="J27">
+        <f>-3.32*10^-4</f>
+        <v>-3.3199999999999999E-4</v>
+      </c>
+      <c r="K27">
+        <v>-2.9899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>1.3368</v>
+      </c>
+      <c r="E28">
+        <v>0.1159</v>
+      </c>
+      <c r="F28">
+        <f>E28*100</f>
+        <v>11.59</v>
+      </c>
+      <c r="H28">
+        <v>1.7810999999999999</v>
+      </c>
+      <c r="J28">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="K28">
+        <v>0.1159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B21">
-        <v>1.7395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>1.7397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>1.7393000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>1.7395</v>
-      </c>
-      <c r="D24">
-        <v>2.3231000000000002</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24">
-        <v>-0.58360000000000001</v>
-      </c>
-      <c r="H24">
-        <v>2.58E-2</v>
-      </c>
-      <c r="I24">
-        <f>H24*90</f>
-        <v>2.3220000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26">
-        <v>1.5442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
-        <v>1.5444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28">
-        <v>1.5445</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>1.5444</v>
-      </c>
-      <c r="D29">
-        <v>-9.1552000000000007</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1.6677999999999999</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1.6E-2</v>
       </c>
       <c r="F29">
-        <v>10.6996</v>
+        <f>E29*100</f>
+        <v>-1.6</v>
       </c>
       <c r="H29">
-        <v>-0.1017</v>
-      </c>
-      <c r="I29">
-        <f>H29*90</f>
-        <v>-9.1530000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="1">
-        <v>19633</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="1">
-        <v>-89510</v>
+        <v>1.6888000000000001</v>
+      </c>
+      <c r="J29">
+        <f>-1.7805*10^-4</f>
+        <v>-1.7805000000000002E-4</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-1.6E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
